--- a/数据整理/stocks/A股/上证主板/600376-首开股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600376-首开股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,521 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>4.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600376-首开股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600376-首开股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.78</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -1295,13 +1390,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>4.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600376-首开股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600376-首开股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证红利ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>177.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.1769</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3957</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.78</v>
       </c>
     </row>
     <row r="4">
@@ -580,150 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2030</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1218</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.93</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +532,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,13 +1137,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,88 +1194,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001656</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银汇理中国优势灵活配置混合</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>177.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>95.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1000</t>
+          <t>4.1769</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1232,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.78</v>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3957</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1270,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.93</v>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600376-首开股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600376-首开股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>5.78</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.93</v>
       </c>
     </row>
@@ -532,6 +549,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -625,7 +774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1137,7 +1286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600376-首开股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600376-首开股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5.78</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.93</v>
       </c>
     </row>
@@ -549,6 +566,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -680,7 +1095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -774,7 +1189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1286,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
